--- a/Documentation/AI Information/Behaviour Flow & State Diagrams.xlsx
+++ b/Documentation/AI Information/Behaviour Flow & State Diagrams.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28421"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Light Demon" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,8 @@
     <sheet name="Main Demon" sheetId="3" r:id="rId4"/>
     <sheet name="Main Ghost" sheetId="4" r:id="rId5"/>
     <sheet name="Ghost" sheetId="5" r:id="rId6"/>
+    <sheet name="Main Character" sheetId="7" r:id="rId7"/>
+    <sheet name="Main Character Sub" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,6 +23,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Hail Satan</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -67,8 +77,106 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -109,7 +217,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="135">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -128,6 +236,55 @@
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -146,6 +303,55 @@
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2965,16 +3171,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2983,7 +3189,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241300" y="1130300"/>
+          <a:off x="11887200" y="4394200"/>
           <a:ext cx="1752600" cy="965200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3081,14 +3287,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3097,7 +3303,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1714500" y="3263900"/>
+          <a:off x="1714500" y="3530600"/>
           <a:ext cx="1066800" cy="927100"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -3199,13 +3405,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>35128</xdr:rowOff>
+      <xdr:rowOff>187528</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>414587</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:colOff>338387</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3217,8 +3423,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2781300" y="3654628"/>
-          <a:ext cx="935287" cy="72822"/>
+          <a:off x="2781300" y="3807028"/>
+          <a:ext cx="859087" cy="187122"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3247,15 +3453,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3264,7 +3470,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3530600" y="3479800"/>
+          <a:off x="3454400" y="3632200"/>
           <a:ext cx="1270000" cy="1193800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -3299,15 +3505,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3316,7 +3522,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3708400" y="3835400"/>
+          <a:off x="3543300" y="4000500"/>
           <a:ext cx="914400" cy="596900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3364,9 +3570,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
@@ -3384,8 +3590,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="4076700"/>
-          <a:ext cx="482600" cy="1054100"/>
+          <a:off x="4724400" y="4229100"/>
+          <a:ext cx="558800" cy="901700"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3414,9 +3620,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>414587</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>117272</xdr:rowOff>
+      <xdr:colOff>338387</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>79172</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
@@ -3434,8 +3640,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="3716587" y="4498772"/>
-          <a:ext cx="1117600" cy="806856"/>
+          <a:off x="3640387" y="4651172"/>
+          <a:ext cx="1193800" cy="654456"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3567,6 +3773,1477 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t>Arrived at location</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="TextBox 67"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2667000" y="1206500"/>
+          <a:ext cx="1219200" cy="520700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Randomly</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Pick New Location</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="TextBox 69"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2501900" y="2133600"/>
+          <a:ext cx="1536700" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Move to new</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> location</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>793750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="Straight Connector 70"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="68" idx="2"/>
+          <a:endCxn id="70" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3270250" y="1727200"/>
+          <a:ext cx="6350" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle" w="lg"/>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="Left Bracket 71"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2336800" y="1117600"/>
+          <a:ext cx="241300" cy="1511300"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBracket">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="Left Bracket 72"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3975100" y="1143000"/>
+          <a:ext cx="241300" cy="1511300"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBracket">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="TextBox 73"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6629400" y="406400"/>
+          <a:ext cx="1219200" cy="520700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Check distance from the player</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="TextBox 74"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144000" y="495300"/>
+          <a:ext cx="1016000" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Stop moving </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="Straight Connector 75"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="74" idx="3"/>
+          <a:endCxn id="75" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7848600" y="660400"/>
+          <a:ext cx="1295400" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="TextBox 76"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8140700" y="571500"/>
+          <a:ext cx="711200" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>In Range</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="TextBox 77"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9131300" y="1828800"/>
+          <a:ext cx="1041400" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Attack player</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="Straight Connector 78"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="74" idx="2"/>
+          <a:endCxn id="83" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="927100"/>
+          <a:ext cx="12700" cy="774700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="TextBox 80"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6692900" y="1092200"/>
+          <a:ext cx="1041400" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Not in Range</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="TextBox 81"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9042400" y="2781300"/>
+          <a:ext cx="1219200" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Check if player is still in range</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="TextBox 82"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6743700" y="1701800"/>
+          <a:ext cx="1016000" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Walk towards player</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="Elbow Connector 83"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="83" idx="1"/>
+          <a:endCxn id="74" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="6629400" y="666750"/>
+          <a:ext cx="114300" cy="1358900"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 300000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="Straight Connector 85"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="75" idx="2"/>
+          <a:endCxn id="78" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9652000" y="825500"/>
+          <a:ext cx="0" cy="1003300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="Straight Connector 86"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="78" idx="2"/>
+          <a:endCxn id="82" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9652000" y="2159000"/>
+          <a:ext cx="0" cy="622300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="Elbow Connector 87"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="82" idx="3"/>
+          <a:endCxn id="78" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10172700" y="1993900"/>
+          <a:ext cx="88900" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -257143"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="TextBox 89"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10210800" y="2273300"/>
+          <a:ext cx="711200" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>In Range</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="Left Bracket 90"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6159500" y="304800"/>
+          <a:ext cx="762000" cy="3035300"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBracket">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="Left Bracket 92"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10337800" y="368300"/>
+          <a:ext cx="762000" cy="3035300"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBracket">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="Straight Arrow Connector 93"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19392900" y="3619500"/>
+          <a:ext cx="0" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="TextBox 94"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18821400" y="3911600"/>
+          <a:ext cx="850900" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Sees Player</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="Straight Arrow Connector 96"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="20345400" y="3619500"/>
+          <a:ext cx="12700" cy="977900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="TextBox 97"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20066000" y="3949700"/>
+          <a:ext cx="1041400" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Not in Range</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="TextBox 100"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2273300" y="241300"/>
+          <a:ext cx="2222500" cy="584200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>STATE: IDLE/RANDOM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t> WALK</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="TextBox 102"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11277600" y="431800"/>
+          <a:ext cx="1790700" cy="698500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>STATES: MOVE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t> TO PLAYER &amp; ATTACK</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -11902,13 +13579,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11940,81 +13617,14 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="86" name="TextBox 85"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4826000" y="5486400"/>
-          <a:ext cx="914400" cy="596900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1"/>
-            <a:t>RANDOM</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
-            <a:t> WALK </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Random Walk</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -12024,13 +13634,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12062,11 +13672,14 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Move To Player</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -12076,13 +13689,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12114,151 +13727,14 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="TextBox 88"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9004300" y="5473700"/>
-          <a:ext cx="914400" cy="596900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1"/>
-            <a:t>MOVE</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
-            <a:t> TO PLAYER</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1200" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="90" name="TextBox 89"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4800600" y="8470900"/>
-          <a:ext cx="914400" cy="596900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1"/>
-            <a:t>ATTACK</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
-            <a:t> PLAYER</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Attack Player</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -12268,13 +13744,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12317,14 +13793,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12334,7 +13810,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4495800" y="6591300"/>
+          <a:off x="4610100" y="8115300"/>
           <a:ext cx="876300" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12374,13 +13850,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>779213</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>53772</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>779213</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>149428</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12424,13 +13900,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>779213</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>162128</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>757487</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>22428</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12474,13 +13950,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12528,29 +14004,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>779213</xdr:colOff>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>104572</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>757487</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>149428</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="96" name="Straight Connector 95"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="87" idx="3"/>
-          <a:endCxn id="88" idx="6"/>
+          <a:endCxn id="88" idx="7"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5918200" y="6200572"/>
-          <a:ext cx="3094287" cy="2562428"/>
+          <a:off x="5732213" y="7724572"/>
+          <a:ext cx="3280274" cy="2140356"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -12580,69 +14056,69 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="TextBox 96"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7518400" y="6756400"/>
+          <a:ext cx="774700" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>See player &amp; Inrange</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="97" name="TextBox 96"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7518400" y="6756400"/>
-          <a:ext cx="774700" cy="495300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>See player &amp; Inrange</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12685,15 +14161,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12702,7 +14178,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8890000" y="8051800"/>
+          <a:off x="8826500" y="9677400"/>
           <a:ext cx="1270000" cy="1193800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -12724,106 +14200,45 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Die</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100" name="TextBox 99"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9042400" y="8356600"/>
-          <a:ext cx="914400" cy="596900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1"/>
-            <a:t>DIE</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>779213</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>117272</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>820987</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>41072</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="101" name="Straight Connector 100"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="88" idx="5"/>
-          <a:endCxn id="99" idx="3"/>
+          <a:stCxn id="88" idx="6"/>
+          <a:endCxn id="99" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5732213" y="9070772"/>
-          <a:ext cx="3343774" cy="114300"/>
+          <a:off x="5918200" y="10274300"/>
+          <a:ext cx="2908300" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -12853,14 +14268,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -12872,8 +14287,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9461500" y="6375400"/>
-          <a:ext cx="63500" cy="1676400"/>
+          <a:off x="9461500" y="7899400"/>
+          <a:ext cx="0" cy="1778000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -12903,14 +14318,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -12922,13 +14337,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="4648200" y="5727700"/>
-          <a:ext cx="4876800" cy="3517900"/>
+          <a:off x="4648200" y="7251700"/>
+          <a:ext cx="4813300" cy="3619500"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -13803"/>
-            <a:gd name="adj2" fmla="val 116245"/>
+            <a:gd name="adj1" fmla="val -4749"/>
+            <a:gd name="adj2" fmla="val 106316"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -12956,13 +14371,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13011,15 +14426,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13028,7 +14443,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3556000" y="7454900"/>
+          <a:off x="3822700" y="8991600"/>
           <a:ext cx="977900" cy="355600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13067,15 +14482,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13084,7 +14499,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7010400" y="9017000"/>
+          <a:off x="6997700" y="10147300"/>
           <a:ext cx="977900" cy="355600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13124,13 +14539,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13180,13 +14595,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13291,16 +14706,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13309,7 +14724,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="279400" y="4851400"/>
+          <a:off x="12128500" y="2438400"/>
           <a:ext cx="1752600" cy="965200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13349,15 +14764,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13366,7 +14781,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1714500" y="3263900"/>
+          <a:off x="1765300" y="5130800"/>
           <a:ext cx="1066800" cy="927100"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -13388,106 +14803,49 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Begin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t> Play</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="112" name="TextBox 111"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1892300" y="3492500"/>
-          <a:ext cx="723900" cy="495300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1"/>
-            <a:t>Begin play</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>35128</xdr:rowOff>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>414587</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="113" name="Straight Connector 112"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="111" idx="6"/>
-          <a:endCxn id="114" idx="1"/>
+          <a:endCxn id="114" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2781300" y="3654628"/>
-          <a:ext cx="935287" cy="72822"/>
+        <a:xfrm>
+          <a:off x="2832100" y="5594350"/>
+          <a:ext cx="698500" cy="6350"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -13517,13 +14875,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13555,75 +14913,13 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="115" name="TextBox 114"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3708400" y="3835400"/>
-          <a:ext cx="914400" cy="596900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1"/>
-            <a:t>IDLE</a:t>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Idle</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -13634,13 +14930,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13682,15 +14978,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>414587</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>117272</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>706687</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>162128</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13698,13 +14994,13 @@
         <xdr:cNvPr id="117" name="Straight Connector 116"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="85" idx="1"/>
-          <a:endCxn id="114" idx="3"/>
+          <a:endCxn id="114" idx="4"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="3716587" y="4498772"/>
-          <a:ext cx="1117600" cy="806856"/>
+          <a:off x="4165600" y="6197600"/>
+          <a:ext cx="668587" cy="632028"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -13734,13 +15030,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13790,13 +15086,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14224,77 +15520,14 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="189" name="TextBox 188"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4000500" y="4914900"/>
-          <a:ext cx="914400" cy="596900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
-            <a:t>IDLE</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Idle</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -14360,15 +15593,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14377,8 +15610,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="381000" y="4025900"/>
-          <a:ext cx="1752600" cy="965200"/>
+          <a:off x="114300" y="4000500"/>
+          <a:ext cx="1435100" cy="965200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14456,75 +15689,13 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="193" name="TextBox 192"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2654300" y="4165600"/>
-          <a:ext cx="723900" cy="495300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1"/>
-            <a:t>Begin play</a:t>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Begin Play</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -14623,76 +15794,15 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="196" name="TextBox 195"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6464300" y="4889500"/>
-          <a:ext cx="914400" cy="596900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1"/>
-            <a:t>WALK</a:t>
-          </a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Walk </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -15292,76 +16402,15 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="TextBox 29"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3175000" y="4533900"/>
-          <a:ext cx="914400" cy="596900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1"/>
-            <a:t>IDLE</a:t>
-          </a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Idle</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -15426,16 +16475,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15444,7 +16493,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="381000" y="4025900"/>
+          <a:off x="9067800" y="4381500"/>
           <a:ext cx="1752600" cy="965200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15523,75 +16572,13 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="TextBox 55"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1828800" y="3784600"/>
-          <a:ext cx="723900" cy="495300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1"/>
-            <a:t>Begin play</a:t>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Begin Play</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -15690,81 +16677,14 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="TextBox 58"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6464300" y="4889500"/>
-          <a:ext cx="914400" cy="596900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1"/>
-            <a:t>RANDOM</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
-            <a:t> WALK</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Random Walk</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -15976,6 +16896,3303 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t>Arrived at location</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="Oval 90"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3606800" y="6807200"/>
+          <a:ext cx="1270000" cy="1193800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Cross Sub State</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="Oval 114"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6604000" y="5029200"/>
+          <a:ext cx="1270000" cy="1193800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Normal Sub State</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="131" name="Oval 130"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4737100" y="4762500"/>
+          <a:ext cx="1066800" cy="927100"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Begin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t> Play</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="149" name="Oval 148"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="7454900"/>
+          <a:ext cx="1270000" cy="1193800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Die State</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="150" name="Oval 149"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4673600" y="9893300"/>
+          <a:ext cx="1270000" cy="1193800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Pistol Sub State</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="170" name="Oval 169"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8267700" y="9880600"/>
+          <a:ext cx="1270000" cy="1193800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Rifle</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Sub State</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="211" name="Oval 210"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9512300" y="6858000"/>
+          <a:ext cx="1270000" cy="1193800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Knife</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Sub State</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>60528</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>185987</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="231" name="Straight Connector 230"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="131" idx="6"/>
+          <a:endCxn id="115" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5803900" y="5204028"/>
+          <a:ext cx="986087" cy="22022"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="247" name="Straight Arrow Connector 246"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="115" idx="6"/>
+          <a:endCxn id="211" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7874000" y="5626100"/>
+          <a:ext cx="2273300" cy="1231900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>732087</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>162128</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="250" name="Straight Arrow Connector 249"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="91" idx="4"/>
+          <a:endCxn id="150" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4241800" y="8001000"/>
+          <a:ext cx="617787" cy="2067128"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="251" name="Straight Arrow Connector 250"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="150" idx="6"/>
+          <a:endCxn id="170" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5943600" y="10477500"/>
+          <a:ext cx="2324100" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>271213</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>149428</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="252" name="Straight Arrow Connector 251"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="170" idx="7"/>
+          <a:endCxn id="211" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9351713" y="8051800"/>
+          <a:ext cx="795587" cy="2003628"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="259" name="Straight Arrow Connector 258"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="91" idx="0"/>
+          <a:endCxn id="115" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4241800" y="5626100"/>
+          <a:ext cx="2362200" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="266" name="Straight Connector 265"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="115" idx="4"/>
+          <a:endCxn id="149" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7226300" y="6223000"/>
+          <a:ext cx="12700" cy="1231900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>173287</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9728</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="270" name="Straight Connector 269"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="91" idx="6"/>
+          <a:endCxn id="149" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="7404100"/>
+          <a:ext cx="1900487" cy="225628"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>91872</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>173287</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="273" name="Straight Connector 272"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="149" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5486400" y="8473872"/>
+          <a:ext cx="1290887" cy="1444828"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>245813</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9728</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="276" name="Straight Connector 275"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="211" idx="2"/>
+          <a:endCxn id="149" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7675313" y="7454900"/>
+          <a:ext cx="1836987" cy="174828"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>245813</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>91872</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="279" name="Straight Connector 278"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="149" idx="5"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7675313" y="8473872"/>
+          <a:ext cx="947987" cy="1457528"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>563313</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>15672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>198687</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>149428</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="293" name="Straight Arrow Connector 292"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="91" idx="5"/>
+          <a:endCxn id="170" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4690813" y="7826172"/>
+          <a:ext cx="3762874" cy="2229256"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>804613</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66472</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>617787</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>162128</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="322" name="Straight Arrow Connector 321"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="211" idx="3"/>
+          <a:endCxn id="150" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5757613" y="7876972"/>
+          <a:ext cx="3940674" cy="2191156"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>563313</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>124028</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>617787</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>174828</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="325" name="Straight Arrow Connector 324"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="91" idx="7"/>
+          <a:endCxn id="211" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4690813" y="6982028"/>
+          <a:ext cx="5007474" cy="50800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>258513</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="331" name="Straight Arrow Connector 330"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="115" idx="5"/>
+          <a:endCxn id="170" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7688013" y="6048172"/>
+          <a:ext cx="1214687" cy="3832428"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>185987</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="335" name="Straight Arrow Connector 334"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="115" idx="3"/>
+          <a:endCxn id="150" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5308600" y="6048172"/>
+          <a:ext cx="1481387" cy="3845128"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>474413</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>53772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>427287</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>149428</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="125" name="Straight Connector 124"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="63" idx="3"/>
+          <a:endCxn id="64" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12031413" y="1768272"/>
+          <a:ext cx="2429374" cy="2000656"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Oval 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3517900" y="1498600"/>
+          <a:ext cx="1270000" cy="1193800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Idle </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Oval 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2019300" y="609600"/>
+          <a:ext cx="1066800" cy="927100"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Begin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t> Play</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Oval 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6832600" y="1511300"/>
+          <a:ext cx="1270000" cy="1193800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Walk-Run</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Oval 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3517900" y="1498600"/>
+          <a:ext cx="1270000" cy="1193800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Gun Idle </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Oval 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6845300" y="4178300"/>
+          <a:ext cx="1270000" cy="1193800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Gun Walk-Run</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Oval 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3517900" y="4165600"/>
+          <a:ext cx="1270000" cy="1193800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Reload</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Oval 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6845300" y="7073900"/>
+          <a:ext cx="1270000" cy="1193800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Fire</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>474413</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>149428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>414587</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>162128</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Connector 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="7"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4601913" y="1673428"/>
+          <a:ext cx="2416674" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>474413</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>41072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>414587</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>53772</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Connector 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="2" idx="5"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4601913" y="2517572"/>
+          <a:ext cx="2416674" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>453371</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>67429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>401887</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>149428</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Connector 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="5"/>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2929871" y="1400929"/>
+          <a:ext cx="774016" cy="272499"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>474413</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>149428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>427287</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>162128</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Connector 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="7"/>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4601913" y="4340428"/>
+          <a:ext cx="2429374" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="TextBox 26"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5410200" y="2400300"/>
+          <a:ext cx="876300" cy="215900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Speed &lt; 10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="TextBox 27"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334000" y="1549400"/>
+          <a:ext cx="876300" cy="215900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Speed &lt;= 10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Connector 31"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="8" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4787900" y="4762500"/>
+          <a:ext cx="2057400" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="TextBox 55"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334000" y="4673600"/>
+          <a:ext cx="876300" cy="215900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Speed &lt; 10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="TextBox 56"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5321300" y="4241800"/>
+          <a:ext cx="876300" cy="215900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Speed &lt;= 10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="TextBox 57"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2641600" y="6299200"/>
+          <a:ext cx="1231900" cy="546100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Reload Event</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> &amp;&amp;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Ammo &lt; MagSize</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="TextBox 58"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7734300" y="6299200"/>
+          <a:ext cx="1231900" cy="546100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Fire Event</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> &amp;&amp;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Ammo &gt; 0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="TextBox 60"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7721600" y="5626100"/>
+          <a:ext cx="1231900" cy="546100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Fire function finished</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Oval 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3517900" y="4165600"/>
+          <a:ext cx="1270000" cy="1193800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Melee</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Idle </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="Oval 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6845300" y="4178300"/>
+          <a:ext cx="1270000" cy="1193800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Melee Walk-Run</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="Oval 63"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3517900" y="7023100"/>
+          <a:ext cx="1270000" cy="1193800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Attack</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>474413</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>149428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>427287</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>162128</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Straight Connector 65"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="62" idx="7"/>
+          <a:endCxn id="63" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4601913" y="4340428"/>
+          <a:ext cx="2429374" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="Straight Connector 66"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="63" idx="2"/>
+          <a:endCxn id="62" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="12217400" y="1333500"/>
+          <a:ext cx="2057400" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="Straight Connector 67"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="62" idx="4"/>
+          <a:endCxn id="64" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4152900" y="5359400"/>
+          <a:ext cx="0" cy="1663700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>401887</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>41072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>401887</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>149428</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Straight Connector 68"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="64" idx="1"/>
+          <a:endCxn id="62" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3703887" y="5184572"/>
+          <a:ext cx="0" cy="2013356"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="TextBox 71"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12750800" y="1244600"/>
+          <a:ext cx="876300" cy="215900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Speed &lt; 10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="TextBox 72"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5321300" y="4241800"/>
+          <a:ext cx="876300" cy="215900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Speed &lt;= 10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="TextBox 73"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11430000" y="2895600"/>
+          <a:ext cx="1651000" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Attack Event</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="TextBox 75"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2552700" y="5918200"/>
+          <a:ext cx="1231900" cy="546100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Attack function finished</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="TextBox 59"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2667000" y="5537200"/>
+          <a:ext cx="1231900" cy="546100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Reload function finished</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="111" name="Straight Arrow Connector 110"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="4"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4152900" y="5359400"/>
+          <a:ext cx="0" cy="1663700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>474413</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>53772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>427287</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>149428</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="114" name="Straight Arrow Connector 113"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="3"/>
+          <a:endCxn id="11" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4601913" y="5197272"/>
+          <a:ext cx="2429374" cy="2000656"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>474413</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>41072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>427287</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9728</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="117" name="Straight Arrow Connector 116"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="5"/>
+          <a:endCxn id="13" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4601913" y="5184572"/>
+          <a:ext cx="2429374" cy="2064156"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="120" name="Straight Arrow Connector 119"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="4"/>
+          <a:endCxn id="13" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7480300" y="5372100"/>
+          <a:ext cx="0" cy="1701800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="128" name="Straight Connector 127"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="64" idx="6"/>
+          <a:endCxn id="63" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12217400" y="1943100"/>
+          <a:ext cx="2692400" cy="2247900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="131" name="TextBox 130"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13944600" y="2413000"/>
+          <a:ext cx="1231900" cy="546100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Attack function finished</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -16309,8 +20526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="R5" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6:AD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -16352,7 +20569,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -16373,12 +20590,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -16393,12 +20611,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -16413,7 +20632,55 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="H41" sqref="H41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="3" spans="13:13">
+      <c r="M3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Documentation/AI Information/Behaviour Flow & State Diagrams.xlsx
+++ b/Documentation/AI Information/Behaviour Flow & State Diagrams.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28421"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Light Demon" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,8 @@
     <sheet name="Ghost" sheetId="5" r:id="rId6"/>
     <sheet name="Main Character" sheetId="7" r:id="rId7"/>
     <sheet name="Main Character Sub" sheetId="8" r:id="rId8"/>
+    <sheet name="Saving" sheetId="9" r:id="rId9"/>
+    <sheet name="Main UML" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -77,8 +79,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="135">
+  <cellStyleXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -217,7 +241,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="135">
+  <cellStyles count="157">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -285,6 +309,17 @@
     <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -352,6 +387,17 @@
     <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5253,6 +5299,1743 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Oval 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3175000" y="2286000"/>
+          <a:ext cx="1511300" cy="1308100"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Project</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t> Night Terror</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Oval 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3225800" y="393700"/>
+          <a:ext cx="1270000" cy="1193800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Game State</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Oval 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6946900" y="457200"/>
+          <a:ext cx="1193800" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>Blueprints</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Oval 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5384800" y="1651000"/>
+          <a:ext cx="1270000" cy="1193800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Level</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Oval 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1651000" y="381000"/>
+          <a:ext cx="1270000" cy="1193800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Game Mode</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Oval 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6972300" y="1714500"/>
+          <a:ext cx="1193800" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>Static Meshes</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Oval 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7023100" y="2997200"/>
+          <a:ext cx="1193800" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>Other</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Oval 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3136900" y="4813300"/>
+          <a:ext cx="1422400" cy="1308100"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Character</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>261620</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="Frame 68"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5214620" y="355600"/>
+          <a:ext cx="3129280" cy="3848100"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="Frame 69"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1574800" y="317500"/>
+          <a:ext cx="2997200" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="TextBox 73"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2349500" y="76200"/>
+          <a:ext cx="1536700" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Game Settings &amp; Info</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="TextBox 74"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6108700" y="139700"/>
+          <a:ext cx="1536700" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Level Settings</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="Oval 76"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="5295900"/>
+          <a:ext cx="1206500" cy="1130300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>Animation Blueprint</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="Oval 79"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="6756400"/>
+          <a:ext cx="1206500" cy="1130300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>Blend Space</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="Frame 85"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="5232400"/>
+          <a:ext cx="1346200" cy="2755900"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="TextBox 99"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="863600" y="5029200"/>
+          <a:ext cx="1079500" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Animation</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="Oval 108"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4622800" y="6705600"/>
+          <a:ext cx="1206500" cy="1130300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>Meshes</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="Oval 109"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3225800" y="6667500"/>
+          <a:ext cx="1206500" cy="1130300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>Blueprints</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="Straight Arrow Connector 111"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="80" idx="0"/>
+          <a:endCxn id="77" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1365250" y="6426200"/>
+          <a:ext cx="0" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>690313</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>593928</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>109149</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="Straight Arrow Connector 114"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="41" idx="1"/>
+          <a:endCxn id="14" idx="5"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6468813" y="2669972"/>
+          <a:ext cx="729115" cy="487177"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="118" name="Straight Arrow Connector 117"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="2"/>
+          <a:endCxn id="14" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6654800" y="2247900"/>
+          <a:ext cx="317500" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>690313</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>55951</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>517728</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>111328</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="121" name="Straight Arrow Connector 120"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="14" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6468813" y="1389451"/>
+          <a:ext cx="652915" cy="436377"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>24333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>43206</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="124" name="Straight Arrow Connector 123"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="86" idx="3"/>
+          <a:endCxn id="48" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2070100" y="5929833"/>
+          <a:ext cx="1275106" cy="680517"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="127" name="Straight Arrow Connector 126"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="166" idx="0"/>
+          <a:endCxn id="2" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3930650" y="3594100"/>
+          <a:ext cx="6350" cy="1130300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>337475</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>261620</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1067</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="130" name="Straight Arrow Connector 129"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="69" idx="1"/>
+          <a:endCxn id="2" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4464975" y="2279650"/>
+          <a:ext cx="749645" cy="197917"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>94325</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1067</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="133" name="Straight Arrow Connector 132"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="70" idx="2"/>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3073400" y="1689100"/>
+          <a:ext cx="322925" cy="788467"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>223494</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>24333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="137" name="Straight Arrow Connector 136"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="155" idx="0"/>
+          <a:endCxn id="48" idx="5"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4350994" y="5929833"/>
+          <a:ext cx="856006" cy="674167"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="149" name="Oval 148"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6007100" y="6692900"/>
+          <a:ext cx="1206500" cy="1130300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>Other</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="155" name="Frame 154"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3149600" y="6604000"/>
+          <a:ext cx="4114800" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="158" name="TextBox 157"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4648200" y="6426200"/>
+          <a:ext cx="1079500" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Components</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="166" name="Frame 165"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="508000" y="4724400"/>
+          <a:ext cx="6858000" cy="3327400"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="167" name="TextBox 166"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4902200" y="4635500"/>
+          <a:ext cx="1079500" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Characters</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -20197,6 +21980,1390 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="TextBox 63"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19177000" y="2159000"/>
+          <a:ext cx="1219200" cy="520700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Load </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Started</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="TextBox 64"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4775200" y="736600"/>
+          <a:ext cx="1536700" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Check if Save Exists</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="TextBox 95"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8077200" y="736600"/>
+          <a:ext cx="1536700" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Do Nothing</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="102" name="Straight Connector 101"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="64" idx="3"/>
+          <a:endCxn id="65" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3886200" y="895350"/>
+          <a:ext cx="889000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="Straight Connector 104"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="65" idx="3"/>
+          <a:endCxn id="96" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6311900" y="895350"/>
+          <a:ext cx="1765300" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="TextBox 110"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6794500" y="736600"/>
+          <a:ext cx="711200" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>No Save</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="Straight Connector 111"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="65" idx="2"/>
+          <a:endCxn id="115" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5530850" y="1054100"/>
+          <a:ext cx="12700" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="TextBox 114"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="2006600"/>
+          <a:ext cx="1536700" cy="698500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Copy Save</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> File Variables into Current Game Varaibles</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="TextBox 118"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2667000" y="635000"/>
+          <a:ext cx="1219200" cy="520700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Save </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Started</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="TextBox 119"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4775200" y="736600"/>
+          <a:ext cx="1536700" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Check if Save Exists</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="TextBox 122"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8077200" y="736600"/>
+          <a:ext cx="1536700" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Create New</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Save File</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="124" name="Straight Connector 123"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="119" idx="3"/>
+          <a:endCxn id="120" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3886200" y="895350"/>
+          <a:ext cx="889000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="125" name="Straight Connector 124"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="120" idx="3"/>
+          <a:endCxn id="123" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6311900" y="895350"/>
+          <a:ext cx="1765300" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="126" name="TextBox 125"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6794500" y="736600"/>
+          <a:ext cx="711200" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>No Save</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="127" name="Straight Connector 126"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="135" idx="2"/>
+          <a:endCxn id="128" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5530850" y="4940300"/>
+          <a:ext cx="0" cy="749300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="128" name="TextBox 127"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="5689600"/>
+          <a:ext cx="1536700" cy="698500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Copy Current </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Game Variables into Save File Varaibles</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="TextBox 128"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5016500" y="1435100"/>
+          <a:ext cx="1028700" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Save exists</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="TextBox 134"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="4483100"/>
+          <a:ext cx="1536700" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Prompt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> User to Overwrite Current Save</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="136" name="Straight Connector 135"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="120" idx="2"/>
+          <a:endCxn id="135" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5530850" y="3721100"/>
+          <a:ext cx="12700" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="147" name="TextBox 146"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5003800" y="3987800"/>
+          <a:ext cx="1028700" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Save exists</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="149" name="TextBox 148"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5003800" y="5156200"/>
+          <a:ext cx="1079500" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Player Says Yes</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="150" name="Straight Connector 149"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="135" idx="3"/>
+          <a:endCxn id="154" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6299200" y="4711700"/>
+          <a:ext cx="1841500" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="154" name="TextBox 153"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8140700" y="4572000"/>
+          <a:ext cx="1536700" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Do Nothing</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="157" name="TextBox 156"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6616700" y="4584700"/>
+          <a:ext cx="1079500" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Player Says No</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="159" name="Straight Connector 158"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="123" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6299200" y="3721100"/>
+          <a:ext cx="2546350" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -20526,8 +23693,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="R5" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6:AD42"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A8" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -20589,7 +23777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -20610,8 +23798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -20679,7 +23867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+    <sheetView topLeftCell="F2" workbookViewId="0">
       <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
@@ -20694,4 +23882,25 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>